--- a/doc/UI设计书.xlsx
+++ b/doc/UI设计书.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/StockDataConvert/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ai1/Documents/GitHub/StockDataConvert/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE398B96-5BBC-D948-925D-83A6627F99B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF16433-4597-6B47-B4EE-ED091359EE0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="2300" windowWidth="19940" windowHeight="16940" xr2:uid="{6602486F-7681-F24B-9B0A-D1C9321054D1}"/>
+    <workbookView xWindow="7780" yWindow="820" windowWidth="16000" windowHeight="13440" xr2:uid="{6602486F-7681-F24B-9B0A-D1C9321054D1}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -1674,13 +1674,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>119201</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>551001</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1705,14 +1705,74 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889000" y="8128000"/>
-          <a:ext cx="4559300" cy="4445000"/>
+          <a:off x="598236" y="8399379"/>
+          <a:ext cx="4553730" cy="4386179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523596</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>55702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>757543</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="下箭头 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B0E65E-107E-4240-9382-640A9256A0C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651403" y="7943070"/>
+          <a:ext cx="1058333" cy="445614"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3293,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB4A150-D4F0-1B41-AF3D-AB1DF27FAF91}">
   <dimension ref="B3:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3493,7 +3553,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3952,7 +4012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71714594-9140-7247-99B8-4C397D3F3FBB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -3967,7 +4029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19AEFAA-67F7-CA4D-8111-49F201B690B1}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -4196,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEE45D1-7A2F-FF46-A3B0-E2B03CF49B6D}">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4423,7 +4485,7 @@
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4945,7 +5007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C744E1B-CE38-744D-978C-0E83919CCBA1}">
   <dimension ref="A3:I38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -5416,7 +5478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D5C9E-ECEC-A947-B305-1C1C46F45902}">
   <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
